--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2656595.59352776</v>
+        <v>2654343.513816553</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>108.5748211465607</v>
+        <v>128.736396440389</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>94.41743113184214</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>161.149513965771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>15.83694765563978</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>16.61609021060037</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.84759100840613</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039628</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>55.45354938846216</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.380068175847845</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.2569953879509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223803</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.593005428874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>47.49734780285726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>130.1208074460241</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>219.4517041866526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573451</v>
       </c>
       <c r="C28" t="n">
-        <v>42.71572132711237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>95.2101941496957</v>
       </c>
       <c r="E31" t="n">
-        <v>96.99837838564352</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016391</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>25.52471385612544</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.811569840963</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>267.0154181407639</v>
+        <v>7.408064079031787</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>78.89395497654183</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>83.4472944825329</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977355</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>53.11937003877868</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.164517693149</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1962.303849668961</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.164517693149</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686071</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064747</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8037095364738</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962311</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1261.234304408261</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1033.244753510244</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.4521743667135</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2739.810011970445</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>335.071105591208</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.178203944121</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
         <v>1572.164517693149</v>
@@ -4787,10 +4787,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008243</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.8928126690276</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>72.95662974112065</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992673</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,16 +5540,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>996.5276398439756</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>827.5914569160688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817745</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>1178.176104674215</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>244.2098454714565</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153951</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741615</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159222</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661312</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.33114932884</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3966.646661122953</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3744.978273055628</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055628</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>470.7064074803617</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>962.6357307816251</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>793.6995478537182</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510515</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611865</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611865</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611865</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.6725264685189</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>538.736343540612</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282763</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238956</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583154</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377267</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340306</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442289</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987586</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.5582272005026</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>533.5582272005026</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.98882207229</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>935.9992711742725</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.2066920307424</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>2074.122646505558</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>612.4182386381636</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C43" t="n">
-        <v>612.4182386381636</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2295.62718338566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2076.025718408601</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1786.950491752799</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1532.266003546912</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1242.848833509951</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1014.859282611934</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>794.0667034684034</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300683</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E46" t="n">
-        <v>376.4492432300683</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F46" t="n">
-        <v>229.5592957321579</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>229.5592957321579</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-1.172104466564225e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-3.464831706775987e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.57498479398643</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.50758019583202</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>101.1181252153551</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18.49466557218827</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>67.07129414993841</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459216</v>
       </c>
       <c r="C28" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53.40527886851666</v>
       </c>
       <c r="E31" t="n">
-        <v>49.43558426092565</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.8807364711628</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286496</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>19.50758019582707</v>
+        <v>279.1149342575592</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>24.63391537253359</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.52709304638941</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.5789915191117</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>87.17534280744522</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790968.6727412911</v>
+        <v>790968.672741291</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="H2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
         <v>645717.279752005</v>
@@ -26338,19 +26338,19 @@
         <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
+        <v>11776.97621680577</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11776.97621680578</v>
+      </c>
+      <c r="G4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11776.97621680584</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11776.97621680586</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26522,46 +26522,46 @@
         <v>-870809.2813857165</v>
       </c>
       <c r="C6" t="n">
-        <v>457935.4643418763</v>
+        <v>457935.4643418762</v>
       </c>
       <c r="D6" t="n">
         <v>457935.4643418761</v>
       </c>
       <c r="E6" t="n">
-        <v>207405.3119039368</v>
+        <v>207370.5739785011</v>
       </c>
       <c r="F6" t="n">
-        <v>532817.7737112918</v>
+        <v>532783.0357858568</v>
       </c>
       <c r="G6" t="n">
-        <v>532817.7737112921</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="H6" t="n">
-        <v>532817.7737112923</v>
+        <v>532783.0357858565</v>
       </c>
       <c r="I6" t="n">
-        <v>532817.7737112921</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="J6" t="n">
-        <v>315286.5713140147</v>
+        <v>315251.8333885789</v>
       </c>
       <c r="K6" t="n">
-        <v>532817.7737112922</v>
+        <v>532783.0357858565</v>
       </c>
       <c r="L6" t="n">
-        <v>532817.7737112917</v>
+        <v>532783.0357858567</v>
       </c>
       <c r="M6" t="n">
-        <v>447762.7457757803</v>
+        <v>447728.0078503448</v>
       </c>
       <c r="N6" t="n">
-        <v>532817.7737112918</v>
+        <v>532783.0357858564</v>
       </c>
       <c r="O6" t="n">
-        <v>532817.773711292</v>
+        <v>532783.0357858564</v>
       </c>
       <c r="P6" t="n">
-        <v>532817.7737112921</v>
+        <v>532783.0357858564</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>261.1562795319084</v>
+        <v>240.9947042380801</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.41454905009516</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>125.37348437082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>311.9153108144951</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>332.6248785068126</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.57345701452512</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>309.8193423825454</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29718,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.455427557974652e-12</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,10 +31850,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518513</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796302</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153323</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120931</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6704608606964</v>
+        <v>345.123221785261</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>626.4629682828344</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.184849093591</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>669.466988500007</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,10 +35498,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060401</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774924</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629693</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587134</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.360777931999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287598</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>134.6960534463662</v>
+        <v>211.1488143709308</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>483.8667238383899</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715727</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>526.8707440555626</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
